--- a/data/trans_camb/P23_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.768892027909044</v>
+        <v>-4.902269415062188</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.33580368653569</v>
+        <v>-12.68250542488406</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-19.498955054059</v>
+        <v>-19.71746728089398</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.168513315957713</v>
+        <v>-5.438981122208622</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-15.66049297289216</v>
+        <v>-15.92699779172831</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-19.79093486299835</v>
+        <v>-19.14376340135678</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.298492859958535</v>
+        <v>-3.063765262929007</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-12.05980997845675</v>
+        <v>-11.95610541621</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-17.99047658906694</v>
+        <v>-17.81030027228583</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.961904085338949</v>
+        <v>7.505876845609107</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03070433125332286</v>
+        <v>-0.3829120243320164</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-8.129709932961749</v>
+        <v>-8.574558910706553</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.663787963929799</v>
+        <v>9.585601223523827</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.723499001091805</v>
+        <v>-2.404334344712367</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-7.955246723063339</v>
+        <v>-7.847226409212263</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.525331454480902</v>
+        <v>6.660332639823251</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-3.512780609333904</v>
+        <v>-3.22092642373776</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-10.00692633934647</v>
+        <v>-10.03502933812296</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.139619383735616</v>
+        <v>-0.1415586043066586</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3684047982002174</v>
+        <v>-0.37369813896868</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5656875118692289</v>
+        <v>-0.5773720472195838</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1667415216548335</v>
+        <v>-0.1687659236931926</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4817157249120939</v>
+        <v>-0.4908675488957329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5913418996250197</v>
+        <v>-0.588643593136935</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1071197346795354</v>
+        <v>-0.09530687862779992</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3726401288601255</v>
+        <v>-0.3707668434121636</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5513125737426289</v>
+        <v>-0.5531060430855831</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2930653804405048</v>
+        <v>0.2564953923734151</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.005921574972121374</v>
+        <v>-0.01007988793662627</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2892478671677839</v>
+        <v>-0.2976668909282588</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4038770939027321</v>
+        <v>0.3921816802485661</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.06430519934234888</v>
+        <v>-0.07894227757986468</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3233150646846429</v>
+        <v>-0.3172192402250646</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2321856617544238</v>
+        <v>0.2425763909665326</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1240275655952133</v>
+        <v>-0.1143638206340479</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3645901506235898</v>
+        <v>-0.3680097286943636</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.897553521309215</v>
+        <v>-6.894407516227004</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.61865179387766</v>
+        <v>-13.45373170296602</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.69936886508425</v>
+        <v>-21.40203000618638</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.748214305196135</v>
+        <v>-5.79613416808064</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-14.56282635697356</v>
+        <v>-15.32609057843574</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-18.65428457769189</v>
+        <v>-18.80423049704963</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.346291204681545</v>
+        <v>-4.803165407059126</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-12.54940609722406</v>
+        <v>-12.09948118992863</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-18.5208601370645</v>
+        <v>-18.5457781886523</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.416466884097349</v>
+        <v>7.04886933210867</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4114987339373818</v>
+        <v>0.4978202860328498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-9.065499969160177</v>
+        <v>-8.506391693966092</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.500215966318187</v>
+        <v>9.44006076503892</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.091618225642545</v>
+        <v>-1.634602108707885</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-6.705975236099674</v>
+        <v>-6.764721883010637</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.759873991793238</v>
+        <v>5.799604367634738</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.592343638543237</v>
+        <v>-2.827021406054504</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-9.4436827784677</v>
+        <v>-9.675777778126365</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1985736186377816</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.4345511068166795</v>
+        <v>-0.4345511068166796</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.04671877412690779</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1851646312380122</v>
+        <v>-0.1822637098307558</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.357830347394929</v>
+        <v>-0.358886429179932</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5590693576485712</v>
+        <v>-0.5578701698634411</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.147572072649775</v>
+        <v>-0.1480548530685446</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.382152302473315</v>
+        <v>-0.3936602295678978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4951544974967034</v>
+        <v>-0.493785217543974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1196325523842929</v>
+        <v>-0.1313931914483657</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3390841987149605</v>
+        <v>-0.3308762981079502</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5046890625374557</v>
+        <v>-0.498257900216928</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2383569352055634</v>
+        <v>0.2216618722998442</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01414773839580297</v>
+        <v>0.005730488575321678</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2868804075212491</v>
+        <v>-0.2681304186571581</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2983902485725895</v>
+        <v>0.3057528259649296</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.03625976402689441</v>
+        <v>-0.04920068872452532</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2230820626874745</v>
+        <v>-0.2132663741668456</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1820654833580283</v>
+        <v>0.1781635078712342</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.08472579954388945</v>
+        <v>-0.08427811424840287</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.3042614442893762</v>
+        <v>-0.2998221315661805</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.24404169828249</v>
+        <v>-11.16625815308992</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.464317095719901</v>
+        <v>-9.723373244090265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-23.97515973858281</v>
+        <v>-23.8974728598577</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.549230464467411</v>
+        <v>-3.031212324206305</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.177188226441975</v>
+        <v>-4.059619743452163</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-19.46684322447774</v>
+        <v>-20.29635714735995</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.542457399943384</v>
+        <v>-7.828135009251009</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.852157629706674</v>
+        <v>-6.882191422898345</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-21.69653013840503</v>
+        <v>-22.35429431978703</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8237179059628893</v>
+        <v>0.622471730005592</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.213838716076508</v>
+        <v>2.241587281445212</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-12.28330943828531</v>
+        <v>-12.30207325023019</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.41600301107595</v>
+        <v>14.75861358460188</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.77608766349741</v>
+        <v>16.28949900498761</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-3.525788641486232</v>
+        <v>-4.624454016407483</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.298223307773612</v>
+        <v>2.373894373309516</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.606739119381216</v>
+        <v>3.747349564648503</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-12.04606480683114</v>
+        <v>-12.04539325250027</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.08337547152973242</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.4027304019619872</v>
+        <v>-0.4027304019619873</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2209785736469712</v>
@@ -1188,7 +1188,7 @@
         <v>0.2040080877116476</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.4446407405269406</v>
+        <v>-0.4446407405269405</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.07373559240722369</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2332456714331297</v>
+        <v>-0.2308264613445412</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2000949111469266</v>
+        <v>-0.2039499564953939</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5029689513762517</v>
+        <v>-0.503101433303208</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1088484923543272</v>
+        <v>-0.09823211049329662</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1815125695275068</v>
+        <v>-0.1366525842629731</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6323009789482931</v>
+        <v>-0.6236164935815698</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1766347206163848</v>
+        <v>-0.177999337494697</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1595620033664816</v>
+        <v>-0.1598073075816179</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5073413041259994</v>
+        <v>-0.5119100553634844</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.01822150729950014</v>
+        <v>0.01509382754046943</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.051526439558432</v>
+        <v>0.05151175827842537</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2880950170483907</v>
+        <v>-0.285108343838827</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.733742844306535</v>
+        <v>0.7157252856770602</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6972743877062302</v>
+        <v>0.8002943970142428</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1530934414596509</v>
+        <v>-0.1864737115264054</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06249100717443404</v>
+        <v>0.06208259131015719</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.09333818303596352</v>
+        <v>0.09696003912387113</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3124466100420619</v>
+        <v>-0.3134108574367202</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>6.330286376664024</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-5.028035481665516</v>
+        <v>-5.02803548166551</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.1021041778847764</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.863403098290251</v>
+        <v>-6.648243808367398</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.473479251846721</v>
+        <v>-9.184155864363118</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.95580670223617</v>
+        <v>-14.71068744802032</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8216994494354326</v>
+        <v>-0.2539540775336725</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.288415043361619</v>
+        <v>1.3436080929968</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.316485361885528</v>
+        <v>-9.52954745932297</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.036576568779696</v>
+        <v>-2.748120061194304</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.047295724448766</v>
+        <v>-3.90263845593933</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-11.84178103356605</v>
+        <v>-11.90282298943055</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.528213089554486</v>
+        <v>1.460636454109814</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.115628629017619</v>
+        <v>-1.404323283156844</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.270037273277755</v>
+        <v>-6.372520900689628</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.257370379776384</v>
+        <v>9.745073600948224</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.93429954849095</v>
+        <v>11.00938888539356</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.7806934990667169</v>
+        <v>-0.8837321012301625</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.571024432061599</v>
+        <v>3.505942942789563</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.968585581412906</v>
+        <v>2.283579337926968</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-5.842892485796455</v>
+        <v>-5.886100309195379</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1259551183920044</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2508436157564219</v>
+        <v>-0.250843615756422</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1529978714480157</v>
@@ -1402,7 +1402,7 @@
         <v>0.1981152865942991</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1573594986363659</v>
+        <v>-0.1573594986363658</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.00262747654134238</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.152680333629844</v>
+        <v>-0.1519185983110163</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2117438542178499</v>
+        <v>-0.2089592068754487</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3355424618061997</v>
+        <v>-0.3267183249458518</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02515607911951296</v>
+        <v>-0.008624107118577069</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03766088871834385</v>
+        <v>0.03628829464912918</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2709843580119092</v>
+        <v>-0.2797737582740039</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07471628072624907</v>
+        <v>-0.06765392629599375</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09883276321927417</v>
+        <v>-0.09670143527937328</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2962803837743846</v>
+        <v>-0.2973887844038168</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03827340329021454</v>
+        <v>0.03489670578977057</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.02424287004762521</v>
+        <v>-0.03535537356397594</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1559458333766964</v>
+        <v>-0.1510289044283152</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3098203431736317</v>
+        <v>0.3303720857683142</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3779142788357646</v>
+        <v>0.3766344768589202</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.02891330818118851</v>
+        <v>-0.03266477532053597</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09416751131882684</v>
+        <v>0.09526039527612992</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.05139972467389288</v>
+        <v>0.06319915139464398</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1572038770897125</v>
+        <v>-0.1557949292198503</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-9.647560368205465</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-16.12519633758482</v>
+        <v>-16.12519633758483</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-2.383547256960078</v>
@@ -1511,7 +1511,7 @@
         <v>-1.396715341443222</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-9.604058118208833</v>
+        <v>-9.604058118208824</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-4.665792969669457</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-16.6229483762929</v>
+        <v>-15.66269994082585</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-16.54706467628064</v>
+        <v>-16.44026627030595</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-23.38240812508016</v>
+        <v>-23.13026016605106</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.554579658981339</v>
+        <v>-7.352383862698113</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.471752845059051</v>
+        <v>-6.610606106702879</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-14.36865436848299</v>
+        <v>-13.96723781476432</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-8.80805158941045</v>
+        <v>-9.030430660265381</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.915833517931506</v>
+        <v>-8.017161046429809</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-15.59296134644247</v>
+        <v>-15.39914691647614</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-2.637417635045256</v>
+        <v>-1.685471435485691</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-3.033888587262118</v>
+        <v>-2.183135454371225</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-8.704467273977082</v>
+        <v>-9.048425448829587</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.822140599953328</v>
+        <v>2.633342256363178</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.307102268313352</v>
+        <v>4.213020231956864</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.698302642749155</v>
+        <v>-4.836417578018314</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.3227670932138572</v>
+        <v>-0.261262545079432</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3599624066464558</v>
+        <v>0.4378333343987511</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-7.629751806301711</v>
+        <v>-7.416194316151679</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1988769065820799</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3324083025400205</v>
+        <v>-0.3324083025400206</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.07795559142206465</v>
@@ -1616,7 +1616,7 @@
         <v>-0.04568055874392131</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.3141074834873269</v>
+        <v>-0.3141074834873266</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1247051741742131</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3129901082755242</v>
+        <v>-0.3003790470964056</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.310004519758745</v>
+        <v>-0.308621512476693</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4499682066343095</v>
+        <v>-0.4370241344332524</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.224495393882618</v>
+        <v>-0.2174162064900465</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1889762109719921</v>
+        <v>-0.1962080281443117</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4249007644856865</v>
+        <v>-0.4190886190531541</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2219537761984615</v>
+        <v>-0.2268196856049988</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1954872714168637</v>
+        <v>-0.2030714430950742</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3939705612308279</v>
+        <v>-0.3911225700349678</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.05774629192157819</v>
+        <v>-0.03140556437140136</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.07022412018039922</v>
+        <v>-0.04678744125707932</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2025567173695858</v>
+        <v>-0.2013643851641849</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.105007365622527</v>
+        <v>0.0973722748876337</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1600874787753304</v>
+        <v>0.154560701706425</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1706389325830826</v>
+        <v>-0.1767206044884441</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.008256236946604297</v>
+        <v>-0.008413588653925105</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.01122164008378062</v>
+        <v>0.01249230431244483</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2198837419647476</v>
+        <v>-0.2163747548887301</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>2.625809596506598</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-2.462222717532082</v>
+        <v>-2.462222717532081</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.6330910112571864</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-14.37699493615046</v>
+        <v>-15.03846845556253</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-9.295146864898896</v>
+        <v>-9.495613629116557</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-23.06847699922828</v>
+        <v>-23.46530003732857</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.588054804902663</v>
+        <v>-1.744744953629463</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.1700022135404769</v>
+        <v>-0.2328549320544894</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.067590850782317</v>
+        <v>-5.154114188358446</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.302510066861584</v>
+        <v>-3.037571885809549</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.9264055902640067</v>
+        <v>-0.9160469672647756</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.908475879768605</v>
+        <v>-7.90019763527265</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-1.093624963424653</v>
+        <v>-1.052870827515701</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.123272610289739</v>
+        <v>4.796254923697341</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-7.110382494375685</v>
+        <v>-7.073450486603364</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.117418144987221</v>
+        <v>3.748065687603609</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.743340185365976</v>
+        <v>5.696345858923983</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.6479428787681862</v>
+        <v>0.2985270447272967</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.041948734766467</v>
+        <v>2.425160104072846</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.78182353223624</v>
+        <v>4.583030189740217</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-2.041557341883165</v>
+        <v>-2.019926962382243</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.07717150464521548</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.5792229410193952</v>
+        <v>-0.579222941019395</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.07808964304393862</v>
@@ -1830,7 +1830,7 @@
         <v>0.1973060107380266</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.18501392583496</v>
+        <v>-0.1850139258349599</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.03964300852643736</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4813778268326679</v>
+        <v>-0.4855780912869526</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3024581879327776</v>
+        <v>-0.3031448461843458</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7740158294047119</v>
+        <v>-0.7854329913037218</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1082264784816406</v>
+        <v>-0.1197060328671605</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.01318447113096408</v>
+        <v>-0.01616271997358212</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3629056870935195</v>
+        <v>-0.3613725422654367</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1888341103899125</v>
+        <v>-0.1808915734362012</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.05727329091692926</v>
+        <v>-0.05374550006013645</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4589048552503385</v>
+        <v>-0.4567549327925232</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.0447639064336442</v>
+        <v>-0.04020972906296805</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2109430741680742</v>
+        <v>0.2036007795677462</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2551454675998706</v>
+        <v>-0.2744927001331385</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3335806648934207</v>
+        <v>0.3124367787395283</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4741237094627749</v>
+        <v>0.4669858637616999</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.04686528344337157</v>
+        <v>0.02672759029505169</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1380781609196029</v>
+        <v>0.1630266787450087</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3209005673285918</v>
+        <v>0.325118813590858</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.12766384613722</v>
+        <v>-0.1331694151194535</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-5.213465686005741</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-13.93442875724335</v>
+        <v>-13.93442875724336</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.464450126078885</v>
@@ -1939,7 +1939,7 @@
         <v>1.614578688487253</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-5.534899372504176</v>
+        <v>-5.534899372504182</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.2172075303586596</v>
@@ -1948,7 +1948,7 @@
         <v>-1.761281147925203</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-9.703670939849721</v>
+        <v>-9.703670939849715</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.348153736953325</v>
+        <v>-5.382947167245091</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.539814207027576</v>
+        <v>-7.58917763090062</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-16.53400722411883</v>
+        <v>-16.21560940926812</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.3790388346454509</v>
+        <v>0.3582195816354471</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.4332720308327024</v>
+        <v>-0.4576380489044528</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-7.308369995757746</v>
+        <v>-7.359750908150095</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.82488957630536</v>
+        <v>-1.875593779113514</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.247239496198407</v>
+        <v>-3.370984254969857</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-11.22449908990983</v>
+        <v>-11.27611531894524</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.4332369391809228</v>
+        <v>-0.6247650308997517</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.718688839154483</v>
+        <v>-2.759624348117792</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-11.71232279500461</v>
+        <v>-11.62108933533871</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.704891283933343</v>
+        <v>4.830633270100341</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.695621845975214</v>
+        <v>3.824419773200675</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-3.478670137743235</v>
+        <v>-3.566899075300757</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.460174969983384</v>
+        <v>1.459230110579436</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.1348017206128036</v>
+        <v>-0.0668826010846299</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-8.207229045506315</v>
+        <v>-8.138117911799242</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.1309242967300925</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.3499313883036947</v>
+        <v>-0.3499313883036948</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1004575190986713</v>
@@ -2044,7 +2044,7 @@
         <v>0.06581450674073169</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.225617168527258</v>
+        <v>-0.2256171685272582</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.006776925666622692</v>
@@ -2053,7 +2053,7 @@
         <v>-0.05495238308636809</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.302756799196334</v>
+        <v>-0.3027567991963338</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1312715774926826</v>
+        <v>-0.1327765847484183</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1839436670448438</v>
+        <v>-0.1866499941560709</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.403127315005232</v>
+        <v>-0.3940298047266344</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.01426715193161444</v>
+        <v>0.0138829979898482</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.01710764661760317</v>
+        <v>-0.0177937069748253</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2853029537517432</v>
+        <v>-0.2901418599750987</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.05667383000875344</v>
+        <v>-0.05772831510525079</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.09968314346420892</v>
+        <v>-0.1037944913919073</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3399306410730369</v>
+        <v>-0.3425096662745885</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.01191215421897078</v>
+        <v>-0.01621259441143317</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.07126092793683902</v>
+        <v>-0.07323172512451845</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.301444362080081</v>
+        <v>-0.295071570051835</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1999617654715784</v>
+        <v>0.2059163544035016</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1561543544350174</v>
+        <v>0.1650940461730452</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.1479606179893974</v>
+        <v>-0.1518960245425799</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04680057536066287</v>
+        <v>0.0470977018670582</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.003912969346043092</v>
+        <v>-0.002166258381185595</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.2605133307364186</v>
+        <v>-0.2598629407757203</v>
       </c>
     </row>
     <row r="46">
